--- a/VSC/Credit_calcul.xlsx
+++ b/VSC/Credit_calcul.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mathias/Desktop/WV_SortingNetworks/VSC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="4095" yWindow="465" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,9 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>(0,000278*WALLTIME*NODES + 0,1) * NODETYPE</t>
+  </si>
+  <si>
+    <t>uur</t>
+  </si>
+  <si>
+    <t>418 + min</t>
   </si>
 </sst>
 </file>
@@ -66,7 +67,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -333,7 +334,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -341,52 +342,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E10"/>
+  <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>1900</v>
+        <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7/4.77</f>
-        <v>398.32285115303989</v>
+        <v>419.28721174004198</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>B8-0.1</f>
-        <v>398.22285115303987</v>
+        <v>419.18721174004196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>B9/0.000278</f>
-        <v>1432456.2991116543</v>
+        <v>1507867.6681296474</v>
       </c>
       <c r="C10">
         <f>B10/60</f>
-        <v>23874.271651860905</v>
+        <v>25131.12780216079</v>
       </c>
       <c r="D10">
         <f>C10/60</f>
-        <v>397.90452753101511</v>
+        <v>418.85213003601319</v>
       </c>
       <c r="E10">
         <f>D10/24</f>
-        <v>16.579355313792295</v>
+        <v>17.452172084833883</v>
+      </c>
+      <c r="G10">
+        <f>(D10-418) * 60</f>
+        <v>51.127802160791589</v>
       </c>
     </row>
   </sheetData>

--- a/VSC/Credit_calcul.xlsx
+++ b/VSC/Credit_calcul.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>(0,000278*WALLTIME*NODES + 0,1) * NODETYPE</t>
   </si>
@@ -334,7 +334,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -342,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G10"/>
+  <dimension ref="B4:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -400,6 +400,51 @@
         <v>51.127802160791589</v>
       </c>
     </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B14/6.68</f>
+        <v>299.40119760479041</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>B15-0.1</f>
+        <v>299.30119760479039</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>B16/0.000278</f>
+        <v>1076623.012966872</v>
+      </c>
+      <c r="C17">
+        <f>B17/60</f>
+        <v>17943.716882781198</v>
+      </c>
+      <c r="D17">
+        <f>C17/60</f>
+        <v>299.06194804635328</v>
+      </c>
+      <c r="E17">
+        <f>D17/24</f>
+        <v>12.460914501931386</v>
+      </c>
+      <c r="G17">
+        <f>(D17-299) * 60</f>
+        <v>3.7168827811967731</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
